--- a/examples/sources/data/unsolved/to_schedule/2019-04-05.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-05.xlsx
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" s="2">
         <v>43560</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" s="2">
         <v>43560</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="N160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O160" s="2">
         <v>43560</v>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N163">
         <v>1</v>
@@ -7948,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O164" s="2">
         <v>43560</v>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N167">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O171" s="2">
         <v>43560</v>
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="N172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O172" s="2">
         <v>43560</v>
